--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Año</t>
   </si>
@@ -53,213 +53,234 @@
     <t>Fibra óptica</t>
   </si>
   <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>Cable telefónico</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>Cable coaxial</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
+    <t>DTCA</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>DVLH</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>Alambre de coser</t>
+  </si>
+  <si>
     <t>DTIJ</t>
   </si>
   <si>
+    <t>Postes</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>Mondragón</t>
+  </si>
+  <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>26 Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Plaza</t>
+  </si>
+  <si>
+    <t>Habana del Este</t>
+  </si>
+  <si>
+    <t>3 Municipios</t>
+  </si>
+  <si>
+    <t>11 Municipios</t>
+  </si>
+  <si>
+    <t>Cant-Hechos</t>
+  </si>
+  <si>
+    <t>% Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>1 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>3 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>13 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>Cantidad de Hechos: 75</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
+  </si>
+  <si>
+    <t>9 Municipios</t>
+  </si>
+  <si>
+    <t>26 Municipios</t>
+  </si>
+  <si>
+    <t>Robo de cápsulas</t>
+  </si>
+  <si>
+    <t>Cabina rota</t>
+  </si>
+  <si>
+    <t>Robo del microteléfono</t>
+  </si>
+  <si>
+    <t>Display roto o dañado</t>
+  </si>
+  <si>
+    <t>Corte del bajante</t>
+  </si>
+  <si>
+    <t>Vandalismo múltiple</t>
+  </si>
+  <si>
+    <t>Microteléfono partido</t>
+  </si>
+  <si>
+    <t>Robo equipo completo</t>
+  </si>
+  <si>
+    <t>Robo de la hucha</t>
+  </si>
+  <si>
+    <t>Cant-Hechos-Tpub</t>
+  </si>
+  <si>
+    <t>División Territorial</t>
+  </si>
+  <si>
+    <t>Telefonía Pública (2021)</t>
+  </si>
+  <si>
+    <t>Cantidad Hechos</t>
+  </si>
+  <si>
+    <t>Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Pérdidas Económicas</t>
+  </si>
+  <si>
+    <t>Div Territ.</t>
+  </si>
+  <si>
+    <t>Cant. Hechos</t>
+  </si>
+  <si>
+    <t>Serv. Afect.</t>
+  </si>
+  <si>
+    <t>EP Instaladas</t>
+  </si>
+  <si>
+    <t>SA/EP</t>
+  </si>
+  <si>
+    <t>Planta Exterior</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Telefonía Pública</t>
+  </si>
+  <si>
+    <t>Material afectado</t>
+  </si>
+  <si>
+    <t>Cant. Material</t>
+  </si>
+  <si>
+    <t>Angulares de torres</t>
+  </si>
+  <si>
+    <t>Crucetas</t>
+  </si>
+  <si>
     <t>Cable de aterramiento</t>
   </si>
   <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>Bajante telefónico</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Tensor de anclaje</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>Cable simétrico</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>Alambre de cobre</t>
-  </si>
-  <si>
-    <t>DTGR</t>
-  </si>
-  <si>
-    <t>Tensor</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>Cable telefónico</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>DTCM</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>DVLH</t>
-  </si>
-  <si>
-    <t>Alambre de coser</t>
-  </si>
-  <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>Mondragón</t>
-  </si>
-  <si>
-    <t>DTCA</t>
-  </si>
-  <si>
-    <t>Cant-Hechos</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>20 Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Habana del Este</t>
-  </si>
-  <si>
-    <t>4 Municipios</t>
-  </si>
-  <si>
-    <t>9 Municipios</t>
-  </si>
-  <si>
-    <t>% Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Jobabo</t>
-  </si>
-  <si>
-    <t>3 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>4 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>6 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>Cantidad de Hechos: 36</t>
-  </si>
-  <si>
-    <t>Arroyo Naranjo</t>
-  </si>
-  <si>
-    <t>Bayamo</t>
-  </si>
-  <si>
-    <t>3 Municipios</t>
-  </si>
-  <si>
-    <t>11 Municipios</t>
-  </si>
-  <si>
-    <t>Cabina rota</t>
-  </si>
-  <si>
-    <t>Robo de cápsulas</t>
-  </si>
-  <si>
-    <t>Robo del microteléfono</t>
-  </si>
-  <si>
-    <t>Vandalismo múltiple</t>
-  </si>
-  <si>
-    <t>Microteléfono partido</t>
-  </si>
-  <si>
-    <t>Display roto o dañado</t>
-  </si>
-  <si>
-    <t>Robo equipo completo</t>
-  </si>
-  <si>
-    <t>Cant-Hechos-Tpub</t>
-  </si>
-  <si>
-    <t>División Territorial</t>
-  </si>
-  <si>
-    <t>Telefonía Pública (2020)</t>
-  </si>
-  <si>
-    <t>Cantidad Hechos</t>
-  </si>
-  <si>
-    <t>Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Pérdidas Económicas</t>
-  </si>
-  <si>
-    <t>Div Territ.</t>
-  </si>
-  <si>
-    <t>Cant. Hechos</t>
-  </si>
-  <si>
-    <t>Serv. Afect.</t>
-  </si>
-  <si>
-    <t>EP Instaladas</t>
-  </si>
-  <si>
-    <t>SA/EP</t>
-  </si>
-  <si>
-    <t>Planta Exterior</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Telefonía Pública</t>
-  </si>
-  <si>
-    <t>Material afectado</t>
-  </si>
-  <si>
-    <t>Cant. Material</t>
-  </si>
-  <si>
-    <t>Postes</t>
-  </si>
-  <si>
-    <t>Gabinetes</t>
-  </si>
-  <si>
-    <t>Cable coaxial</t>
-  </si>
-  <si>
-    <t>Angulares de torres</t>
-  </si>
-  <si>
-    <t>Crucetas</t>
-  </si>
-  <si>
     <t>Campana canal lateral</t>
   </si>
   <si>
@@ -276,12 +297,6 @@
   </si>
   <si>
     <t>Robo de la cabina</t>
-  </si>
-  <si>
-    <t>Robo de la hucha</t>
-  </si>
-  <si>
-    <t>Corte del bajante</t>
   </si>
   <si>
     <t>Corte de la anaconda</t>
@@ -807,7 +822,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2019)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -827,7 +842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -877,28 +892,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$16</c:f>
+              <c:f>Totales!$A$10:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Cable de aterramiento</c:v>
+                  <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cable coaxial</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Gabinetes</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Tensor de anclaje</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>Alambre de coser</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Postes</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -906,17 +936,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$10:$B$16</c:f>
+              <c:f>Totales!$B$10:$B$21</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -925,10 +955,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +1010,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2019)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -981,11 +1026,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$52</c:f>
+              <c:f>Totales!$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1035,45 +1080,63 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$53:$A$57</c:f>
+              <c:f>Totales!$A$60:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Robo de cápsulas</c:v>
+                  <c:v>Cabina rota</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Display roto o dañado</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Corte del bajante</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Microteléfono partido</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Robo de cápsulas</c:v>
+                <c:pt idx="6">
+                  <c:v>Robo equipo completo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cabina rota</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$53:$B$57</c:f>
+              <c:f>Totales!$B$60:$B$67</c:f>
               <c:numCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1111,7 +1174,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1127,7 +1190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$57</c:f>
+              <c:f>Totales!$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1181,23 +1244,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$58:$A$63</c:f>
+              <c:f>Totales!$A$68:$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Display roto o dañado</c:v>
+                  <c:v>Microteléfono partido</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Microteléfono partido</c:v>
+                  <c:v>Robo equipo completo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Robo equipo completo</c:v>
+                  <c:v>Robo de la hucha</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Cant-Hechos-Tpub</c:v>
@@ -1207,20 +1270,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$58:$B$63</c:f>
+              <c:f>Totales!$B$68:$B$73</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1333,7 +1396,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -1372,7 +1435,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -1415,76 +1478,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$63:$A$85</c:f>
+              <c:f>'Totales'!$A$73:$A$93</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1619,52 +1676,52 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>DTAR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DTMZ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DTCF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DTPR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DTLT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DTCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DTVC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DVLH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DTHO</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>DTIJ</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>DTAR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DTVC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DTLT</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DTMZ</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>DTCM</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>DTGR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>DTSS</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>DTGT</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>DTHO</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DTCF</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>DTCM</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DTSS</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>DTMY</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>DTSC</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>DVLH</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>DTPR</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>DTCA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1675,49 +1732,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1791,7 +1848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20 Servicios Afectados</c:v>
+                  <c:v>26 Servicios Afectados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1856,33 +1913,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$26:$E$28</c:f>
+              <c:f>Totales!$E$26:$E$29</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Plaza</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Habana del Este</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4 Municipios</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>9 Municipios</c:v>
+                  <c:v>3 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$26:$F$28</c:f>
+              <c:f>Totales!$F$26:$F$29</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1950,7 +2013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$F$29</c:f>
+              <c:f>Totales!$F$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2019,31 +2082,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$30:$E$33</c:f>
+              <c:f>Totales!$E$31:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Jobabo</c:v>
+                  <c:v>Venezuela</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1 Municipios &lt;=</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3 Municipios &lt;=</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 Municipios &lt;=</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6 Municipios &lt;=</c:v>
+                  <c:v>13 Municipios &lt;=</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$30:$F$33</c:f>
+              <c:f>Totales!$F$31:$F$34</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.85</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
@@ -2118,7 +2181,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2134,11 +2197,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$16</c:f>
+              <c:f>Totales!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2188,32 +2251,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$17:$A$25</c:f>
+              <c:f>Totales!$A$22:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cable coaxial</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tensor de anclaje</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>Gabinetes</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Alambre de coser</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mondragón</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Cant-Hechos</c:v>
@@ -2223,20 +2286,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$17:$B$25</c:f>
+              <c:f>Totales!$B$22:$B$30</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2245,10 +2308,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v/>
@@ -2288,7 +2351,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2019)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2308,7 +2371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2358,28 +2421,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$16</c:f>
+              <c:f>Totales!$A$10:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Cable de aterramiento</c:v>
+                  <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cable coaxial</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Gabinetes</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Tensor de anclaje</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>Alambre de coser</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Postes</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -2387,29 +2465,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$10:$C$16</c:f>
+              <c:f>Totales!$C$10:$C$21</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>2423</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1250</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>921</c:v>
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2539,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2462,11 +2555,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$C$16</c:f>
+              <c:f>Totales!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>921</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2516,32 +2609,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$17:$A$25</c:f>
+              <c:f>Totales!$A$22:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cable coaxial</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tensor de anclaje</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>Gabinetes</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Alambre de coser</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mondragón</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Cant-Hechos</c:v>
@@ -2551,32 +2644,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$17:$C$25</c:f>
+              <c:f>Totales!$C$22:$C$30</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>534</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1097</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>450</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>550</c:v>
+                  <c:v>7702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v/>
@@ -2686,7 +2779,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -2725,7 +2818,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -2768,76 +2861,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$25:$A$47</c:f>
+              <c:f>'Totales'!$A$30:$A$50</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2922,7 +3009,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 16 hechos</c:v>
+            <c:v>2020: 61 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3044,52 +3131,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,7 +3186,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 36 hechos</c:v>
+            <c:v>2021: 75 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3221,49 +3308,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3349,11 +3436,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$47</c:f>
+              <c:f>Totales!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad de Hechos: 36</c:v>
+                  <c:v>Cantidad de Hechos: 75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3418,39 +3505,63 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$48:$A$51</c:f>
+              <c:f>Totales!$A$51:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Arroyo Naranjo</c:v>
+                  <c:v>Santiago de Cuba</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Las Tunas</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Bayamo</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 Municipios</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>11 Municipios</c:v>
+                  <c:v>Camagüey</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jovellanos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Isla de la Juventud</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$48:$B$51</c:f>
+              <c:f>Totales!$B$51:$B$58</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3517,7 +3628,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos x Territorios (2019-2020)</a:t>
+              <a:t>TPub Hechos x Territorios (2020-2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3533,7 +3644,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 19 hechos</c:v>
+            <c:v>2020: 38 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3655,31 +3766,31 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3688,19 +3799,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,7 +3821,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 16 hechos</c:v>
+            <c:v>2021: 20 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3832,22 +3943,22 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3859,25 +3970,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,7 +4070,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Servicios Afectados x Territorios (2019-2020)</a:t>
+              <a:t>TPub Servicios Afectados x Territorios (2020-2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3975,7 +4086,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 22 hechos</c:v>
+            <c:v>2020: 43 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4097,31 +4208,31 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4130,19 +4241,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,7 +4263,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 20 hechos</c:v>
+            <c:v>2021: 24 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4274,10 +4385,10 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4286,10 +4397,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -4301,25 +4412,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,7 +5259,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -5174,32 +5285,32 @@
     </row>
     <row r="2" ht="26.25" customHeight="true">
       <c r="A2" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="4">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2+C2</f>
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
       <c r="A3" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="4">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">C3+B3</f>
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="true">
@@ -5208,15 +5319,15 @@
       </c>
       <c r="B4" s="3" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>20 más</v>
+        <v>14 más</v>
       </c>
       <c r="C4" s="3" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>3 menos</v>
+        <v>17 menos</v>
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>17 más</v>
+        <v>3 menos</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -5225,15 +5336,15 @@
       </c>
       <c r="B5" s="6" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>125% Inc</v>
+        <v>23% Inc</v>
       </c>
       <c r="C5" s="6" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>16% Red</v>
+        <v>45% Red</v>
       </c>
       <c r="D5" s="7" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>49% Inc</v>
+        <v>3% Red</v>
       </c>
     </row>
     <row r="7">
@@ -5257,16 +5368,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>994</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -5274,16 +5385,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>794</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>0.51</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
@@ -5291,16 +5402,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>474</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -5308,16 +5419,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>2423</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5328,13 +5439,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="14">
@@ -5345,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="15">
@@ -5359,166 +5470,166 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1250</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>921</v>
+        <v>450</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>534</v>
+        <v>1070</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1097</v>
+        <v>1350</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>600</v>
+        <v>1122</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3460</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5526,161 +5637,197 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>580</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>7702</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3300</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30">
-        <v>1.85</v>
+      <c r="F30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -5689,35 +5836,26 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
+      <c r="A47">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
+      <c r="A48">
+        <v>16</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
+      <c r="A49">
         <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
         <v>50</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -5725,7 +5863,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -5733,7 +5871,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -5741,7 +5879,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -5749,7 +5887,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -5757,7 +5895,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -5765,36 +5903,36 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5802,15 +5940,15 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5818,62 +5956,92 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>4</v>
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69">
         <v>10</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66">
+    <row r="70">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70">
         <v>6</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>7</v>
-      </c>
-    </row>
     <row r="71">
-      <c r="A71">
-        <v>1</v>
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>5</v>
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>6</v>
+      <c r="A73" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -5883,47 +6051,87 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
         <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5946,20 +6154,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="N1" s="10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -5969,42 +6177,42 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6013,7 +6221,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="N3" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="O3" s="3">
         <f ca="1">E22</f>
@@ -6033,28 +6241,28 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="17">
         <v>0</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" s="3">
         <f ca="1">E23</f>
@@ -6074,28 +6282,28 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D5" s="16">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G5" s="17">
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O5" s="3">
         <f ca="1">E24</f>
@@ -6115,16 +6323,16 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
+        <v>2103</v>
       </c>
       <c r="D6" s="16">
-        <v>386.25</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -6136,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O6" s="3">
         <f ca="1">E25</f>
@@ -6156,28 +6364,28 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="D7" s="16">
-        <v>215.44</v>
+        <v>5197.789999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>1146</v>
+        <v>530</v>
       </c>
       <c r="G7" s="17">
-        <v>5197.789999999999</v>
+        <v>0</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O7" s="3">
         <f ca="1">E26</f>
@@ -6197,28 +6405,28 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17">
         <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O8" s="3">
         <f ca="1">E27</f>
@@ -6238,28 +6446,28 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" s="14">
-        <v>0</v>
+        <v>2916</v>
       </c>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>1468.92</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
-        <v>2916</v>
+        <v>493</v>
       </c>
       <c r="G9" s="17">
-        <v>1136.76</v>
+        <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O9" s="3">
         <f ca="1">E28</f>
@@ -6279,28 +6487,28 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14">
         <v>0</v>
       </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>97.85</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="G10" s="17">
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O10" s="3">
         <f ca="1">E29</f>
@@ -6320,7 +6528,7 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -6332,16 +6540,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G11" s="17">
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O11" s="3">
         <f ca="1">E30</f>
@@ -6361,10 +6569,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="14">
         <v>0</v>
@@ -6373,16 +6581,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="17">
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3">
         <f ca="1">E31</f>
@@ -6402,16 +6610,16 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -6423,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O13" s="3">
         <f ca="1">E32</f>
@@ -6443,28 +6651,28 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>283.7</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>140</v>
+        <v>575</v>
       </c>
       <c r="G14" s="17">
-        <v>226.7</v>
+        <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O14" s="3">
         <f ca="1">E33</f>
@@ -6484,28 +6692,28 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16">
-        <v>226.11</v>
+        <v>21.880000000000003</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G15" s="17">
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O15" s="3">
         <f ca="1">E34</f>
@@ -6525,28 +6733,28 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14">
+        <v>392</v>
+      </c>
+      <c r="D16" s="16">
+        <v>134.2</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>405.83</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G16" s="17">
         <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O16" s="3">
         <f ca="1">E35</f>
@@ -6566,28 +6774,28 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" s="14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="16">
-        <v>659.71</v>
+        <v>2240.89</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="17">
-        <v>1656.39</v>
+        <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O17" s="3">
         <f ca="1">E36</f>
@@ -6607,28 +6815,28 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B18" s="14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" s="14">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D18" s="16">
-        <v>7762.36</v>
+        <v>1015.97</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3">
-        <v>43</v>
+        <v>656</v>
       </c>
       <c r="G18" s="17">
-        <v>875.5699999999999</v>
+        <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3">
         <f ca="1">E37</f>
@@ -6648,16 +6856,16 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B19" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>760.35</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -6669,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O19" s="18">
         <f ca="1">E38</f>
@@ -6690,7 +6898,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1">
         <f ca="1">SUM(B4:B19)</f>
@@ -6719,7 +6927,7 @@
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -6730,22 +6938,22 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26">
+        <v>31.68</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="27">
         <v>2</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26">
-        <v>89.08</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
@@ -6753,39 +6961,39 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>266.92</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G23" s="17">
-        <v>127.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -6799,45 +7007,45 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="16">
-        <v>159.63</v>
+        <v>972.5500000000001</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
       </c>
       <c r="G25" s="17">
-        <v>170.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="16">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -6845,22 +7053,22 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" s="14">
         <v>3</v>
       </c>
       <c r="C27" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="16">
-        <v>107.25999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="17">
         <v>0</v>
@@ -6868,16 +7076,16 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="16">
-        <v>1879.46</v>
+        <v>30.95</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -6886,21 +7094,21 @@
         <v>1</v>
       </c>
       <c r="G28" s="17">
-        <v>30.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B29" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C29" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29" s="16">
-        <v>93.92</v>
+        <v>134.53</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -6909,21 +7117,21 @@
         <v>1</v>
       </c>
       <c r="G29" s="17">
-        <v>46.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="16">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -6937,7 +7145,7 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B31" s="14">
         <v>0</v>
@@ -6949,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -6960,7 +7168,7 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -6969,13 +7177,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="16">
-        <v>72.03999999999999</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="17">
         <v>0</v>
@@ -6983,16 +7191,16 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="16">
-        <v>64.43</v>
+        <v>60.51</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -7006,7 +7214,7 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B34" s="14">
         <v>1</v>
@@ -7015,13 +7223,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="16">
-        <v>0</v>
+        <v>40.44</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="17">
         <v>0</v>
@@ -7029,76 +7237,76 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="16">
-        <v>19.97</v>
+        <v>104.94</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="17">
-        <v>104.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B36" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="16">
-        <v>0</v>
+        <v>98.81</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="17">
-        <v>40.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="16">
-        <v>28.77</v>
+        <v>65.12</v>
       </c>
       <c r="E37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="17">
-        <v>65.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B38" s="18">
         <f ca="1">SUM(B22:B37)</f>
@@ -7127,15 +7335,15 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -7143,88 +7351,88 @@
       <c r="A41" s="13"/>
       <c r="B41" s="31"/>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" s="14">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="E42" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>550</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D43" s="14">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="E43" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43" s="5">
-        <v>534</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="14">
-        <v>1250</v>
+        <v>1070</v>
       </c>
       <c r="E44" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F44" s="5">
-        <v>600</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" s="14">
-        <v>474</v>
+        <v>2423</v>
       </c>
       <c r="E45" s="3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F45" s="5">
-        <v>1097</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="46">
@@ -7233,46 +7441,46 @@
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D46" s="14">
-        <v>41</v>
+        <v>994</v>
       </c>
       <c r="E46" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5">
-        <v>921</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="14">
         <v>1</v>
       </c>
       <c r="D47" s="14">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="5">
-        <v>450</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="32" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -7283,53 +7491,53 @@
     </row>
     <row r="49">
       <c r="A49" s="32" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="32" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="14">
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="5">
         <v>2</v>
@@ -7337,7 +7545,7 @@
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="14">
@@ -7355,7 +7563,7 @@
     </row>
     <row r="53">
       <c r="A53" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="14">
@@ -7373,14 +7581,14 @@
     </row>
     <row r="54">
       <c r="A54" s="32" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -7391,7 +7599,7 @@
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="14">
@@ -7409,7 +7617,7 @@
     </row>
     <row r="56">
       <c r="A56" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="14">
@@ -7427,25 +7635,25 @@
     </row>
     <row r="57">
       <c r="A57" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="32" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="14">
@@ -7463,30 +7671,30 @@
     </row>
     <row r="59">
       <c r="A59" s="34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="36">
+        <v>1</v>
+      </c>
+      <c r="D59" s="36">
         <v>2</v>
       </c>
-      <c r="D59" s="36">
-        <v>10</v>
-      </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E61" s="9"/>
     </row>
@@ -7495,67 +7703,67 @@
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E62" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="32" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="32" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="37"/>
@@ -7568,20 +7776,20 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="37"/>
@@ -7594,33 +7802,33 @@
     </row>
     <row r="70">
       <c r="A70" s="32" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5">
         <v>6</v>
-      </c>
-      <c r="E70" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="37"/>
       <c r="D71" s="38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="32" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="37"/>
@@ -7628,17 +7836,17 @@
         <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="32" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="37"/>
       <c r="D73" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5">
         <v>0</v>
@@ -7646,7 +7854,7 @@
     </row>
     <row r="74">
       <c r="A74" s="32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="37"/>
@@ -7659,7 +7867,7 @@
     </row>
     <row r="75">
       <c r="A75" s="32" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="37"/>
@@ -7672,7 +7880,7 @@
     </row>
     <row r="76">
       <c r="A76" s="34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="35"/>
       <c r="C76" s="39"/>
@@ -7688,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -7707,183 +7915,183 @@
     </row>
     <row r="80">
       <c r="A80" s="14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C80" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D80" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="25"/>
       <c r="B81" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C81" s="14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D81" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="25"/>
       <c r="B82" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C82" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D82" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="25"/>
       <c r="B83" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C83" s="14">
+        <v>5</v>
+      </c>
+      <c r="D83" s="5">
         <v>8</v>
-      </c>
-      <c r="D83" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="25"/>
       <c r="B84" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C84" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="25"/>
       <c r="B85" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C85" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="25"/>
       <c r="B86" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C86" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D86" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="25"/>
       <c r="B87" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C87" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="25"/>
       <c r="B88" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C88" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="25"/>
       <c r="B89" s="14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C89" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D89" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="25"/>
       <c r="B90" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C90" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="25"/>
       <c r="B91" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C91" s="14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C92" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="25"/>
       <c r="B93" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C93" s="14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="25"/>
       <c r="B94" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C94" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D94" s="5">
         <v>4</v>
@@ -7892,79 +8100,79 @@
     <row r="95">
       <c r="A95" s="25"/>
       <c r="B95" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C95" s="14">
+        <v>10</v>
+      </c>
+      <c r="D95" s="5">
         <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="25"/>
       <c r="B96" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="25"/>
       <c r="B97" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C97" s="14">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D97" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="25"/>
       <c r="B98" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C98" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="25"/>
       <c r="B99" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C99" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D99" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="25"/>
       <c r="B100" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C100" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D100" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="25"/>
       <c r="B101" s="14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C101" s="14">
         <v>0</v>
@@ -7976,7 +8184,7 @@
     <row r="102">
       <c r="A102" s="25"/>
       <c r="B102" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C102" s="14">
         <v>0</v>
@@ -7988,7 +8196,7 @@
     <row r="103">
       <c r="A103" s="41"/>
       <c r="B103" s="36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C103" s="36">
         <v>0</v>
@@ -7999,53 +8207,53 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A80:A91"/>
     <mergeCell ref="A76:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8062,27 +8270,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.44141" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
@@ -8090,7 +8298,7 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8099,7 +8307,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -8108,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -8119,25 +8327,25 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -8151,39 +8359,39 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
       </c>
       <c r="J4" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -8195,19 +8403,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="42">
         <v>0</v>
@@ -8215,57 +8423,57 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <v>0</v>
       </c>
       <c r="J6" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -8279,54 +8487,54 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
       </c>
       <c r="J8" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -8343,22 +8551,22 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -8375,22 +8583,22 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
@@ -8407,25 +8615,25 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14">
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -8439,31 +8647,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="42">
         <v>0</v>
@@ -8471,22 +8679,22 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F14" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -8503,25 +8711,25 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -8535,57 +8743,57 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="14">
         <v>6</v>
       </c>
       <c r="D16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F17" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -8599,25 +8807,25 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
       </c>
       <c r="G18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -8631,7 +8839,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B19" s="18">
         <f ca="1">SUM(B3:B18)</f>
@@ -8672,10 +8880,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -1119,7 +1119,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1128,10 +1128,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -3644,7 +3644,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 38 hechos</c:v>
+            <c:v>2020: 34 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3787,7 +3787,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -3799,7 +3799,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -4086,7 +4086,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 43 hechos</c:v>
+            <c:v>2020: 38 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4229,7 +4229,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -4241,7 +4241,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -5291,11 +5291,11 @@
         <v>61</v>
       </c>
       <c r="C2" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2+C2</f>
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
@@ -5323,11 +5323,11 @@
       </c>
       <c r="C4" s="3" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>17 menos</v>
+        <v>13 menos</v>
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>3 menos</v>
+        <v>1 más</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -5340,11 +5340,11 @@
       </c>
       <c r="C5" s="6" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>45% Red</v>
+        <v>38% Red</v>
       </c>
       <c r="D5" s="7" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>3% Red</v>
+        <v>1% Inc</v>
       </c>
     </row>
     <row r="7">
@@ -5943,7 +5943,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -5967,7 +5967,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5975,7 +5975,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -7102,10 +7102,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="16">
         <v>134.53</v>
@@ -7194,13 +7194,13 @@
         <v>19</v>
       </c>
       <c r="B33" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="16">
-        <v>60.51</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -7716,7 +7716,7 @@
       <c r="B63" s="33"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -7729,7 +7729,7 @@
       <c r="B64" s="33"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="5">
         <v>10</v>
@@ -7807,7 +7807,7 @@
       <c r="B70" s="33"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5">
         <v>6</v>
@@ -8207,54 +8207,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A40:B41"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A76:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8880,9 +8880,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -8207,54 +8207,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A74:C74"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A80:A91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8880,10 +8880,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -1119,7 +1119,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3644,7 +3644,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 34 hechos</c:v>
+            <c:v>2020: 35 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3799,7 +3799,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -4086,7 +4086,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 38 hechos</c:v>
+            <c:v>2020: 40 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4241,7 +4241,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -5291,11 +5291,11 @@
         <v>61</v>
       </c>
       <c r="C2" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2+C2</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
@@ -5323,11 +5323,11 @@
       </c>
       <c r="C4" s="3" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>13 menos</v>
+        <v>14 menos</v>
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>1 más</v>
+        <v>Igual</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -5340,11 +5340,11 @@
       </c>
       <c r="C5" s="6" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>38% Red</v>
-      </c>
-      <c r="D5" s="7" t="str">
+        <v>40% Red</v>
+      </c>
+      <c r="D5" s="7">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>1% Inc</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5943,7 +5943,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -7194,13 +7194,13 @@
         <v>19</v>
       </c>
       <c r="B33" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="16">
-        <v>0</v>
+        <v>60.51</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -7716,7 +7716,7 @@
       <c r="B63" s="33"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -8207,54 +8207,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A69:C69"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A92:A103"/>
     <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A61:C62"/>
     <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A80:A91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8880,10 +8880,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Año</t>
   </si>
@@ -59,178 +59,211 @@
     <t>Cable telefónico</t>
   </si>
   <si>
+    <t>DTIJ</t>
+  </si>
+  <si>
+    <t>Cable de aterramiento</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
     <t>DTMZ</t>
   </si>
   <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>Postes</t>
+  </si>
+  <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
     <t>Cable coaxial</t>
   </si>
   <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>Bajante telefónico</t>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>DVLH</t>
   </si>
   <si>
     <t>DTPR</t>
   </si>
   <si>
-    <t>Gabinetes</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>Tensor de anclaje</t>
-  </si>
-  <si>
     <t>DTCA</t>
   </si>
   <si>
-    <t>Cable simétrico</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Alambre de cobre</t>
-  </si>
-  <si>
-    <t>DVLH</t>
-  </si>
-  <si>
-    <t>Tensor</t>
-  </si>
-  <si>
-    <t>DTHO</t>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>53 Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
   </si>
   <si>
     <t>Alambre de coser</t>
   </si>
   <si>
-    <t>DTIJ</t>
-  </si>
-  <si>
-    <t>Postes</t>
-  </si>
-  <si>
-    <t>DTCM</t>
+    <t>Banes</t>
+  </si>
+  <si>
+    <t>Crucetas</t>
+  </si>
+  <si>
+    <t>Artemisa</t>
+  </si>
+  <si>
+    <t>Habana del Este</t>
   </si>
   <si>
     <t>Mondragón</t>
   </si>
   <si>
-    <t>DTGR</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>26 Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Plaza</t>
-  </si>
-  <si>
-    <t>Habana del Este</t>
-  </si>
-  <si>
-    <t>3 Municipios</t>
-  </si>
-  <si>
     <t>11 Municipios</t>
   </si>
   <si>
     <t>Cant-Hechos</t>
   </si>
   <si>
+    <t>15 Municipios</t>
+  </si>
+  <si>
     <t>% Servicios Afectados</t>
   </si>
   <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>1 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>3 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>13 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>Cantidad de Hechos: 75</t>
+    <t>Corralillo</t>
+  </si>
+  <si>
+    <t>Mella</t>
+  </si>
+  <si>
+    <t>Jobabo</t>
+  </si>
+  <si>
+    <t>Manicaragua</t>
+  </si>
+  <si>
+    <t>5 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>10 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>12 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>Cantidad de Hechos: 78</t>
+  </si>
+  <si>
+    <t>Arroyo Naranjo</t>
   </si>
   <si>
     <t>Santiago de Cuba</t>
   </si>
   <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
     <t>Las Tunas</t>
   </si>
   <si>
-    <t>Bayamo</t>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>Holguín</t>
+  </si>
+  <si>
+    <t>Jagüey Grande</t>
+  </si>
+  <si>
+    <t>San Luis (SC)</t>
   </si>
   <si>
     <t>Camagüey</t>
   </si>
   <si>
-    <t>Jovellanos</t>
-  </si>
-  <si>
-    <t>Isla de la Juventud</t>
-  </si>
-  <si>
-    <t>9 Municipios</t>
-  </si>
-  <si>
-    <t>26 Municipios</t>
+    <t>5 Municipios</t>
+  </si>
+  <si>
+    <t>20 Municipios</t>
+  </si>
+  <si>
+    <t>Cabina rota</t>
   </si>
   <si>
     <t>Robo de cápsulas</t>
   </si>
   <si>
-    <t>Cabina rota</t>
-  </si>
-  <si>
     <t>Robo del microteléfono</t>
   </si>
   <si>
+    <t>Corte del bajante</t>
+  </si>
+  <si>
+    <t>Vandalismo múltiple</t>
+  </si>
+  <si>
+    <t>Microteléfono partido</t>
+  </si>
+  <si>
+    <t>Robo equipo completo</t>
+  </si>
+  <si>
+    <t>Robo de la hucha</t>
+  </si>
+  <si>
     <t>Display roto o dañado</t>
   </si>
   <si>
-    <t>Corte del bajante</t>
-  </si>
-  <si>
-    <t>Vandalismo múltiple</t>
-  </si>
-  <si>
-    <t>Microteléfono partido</t>
-  </si>
-  <si>
-    <t>Robo equipo completo</t>
-  </si>
-  <si>
-    <t>Robo de la hucha</t>
-  </si>
-  <si>
     <t>Cant-Hechos-Tpub</t>
   </si>
   <si>
     <t>División Territorial</t>
   </si>
   <si>
-    <t>Telefonía Pública (2021)</t>
+    <t>Telefonía Pública (2020)</t>
   </si>
   <si>
     <t>Cantidad Hechos</t>
@@ -273,12 +306,6 @@
   </si>
   <si>
     <t>Angulares de torres</t>
-  </si>
-  <si>
-    <t>Crucetas</t>
-  </si>
-  <si>
-    <t>Cable de aterramiento</t>
   </si>
   <si>
     <t>Campana canal lateral</t>
@@ -822,7 +849,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2019)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -892,14 +919,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$21</c:f>
+              <c:f>Totales!$A$10:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cable coaxial</c:v>
+                  <c:v>Cable de aterramiento</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
@@ -920,15 +947,9 @@
                   <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Alambre de coser</c:v>
+                  <c:v>Postes</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Postes</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Mondragón</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -936,44 +957,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$10:$B$21</c:f>
+              <c:f>Totales!$B$10:$B$19</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1025,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2019)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1026,11 +1041,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$59</c:f>
+              <c:f>Totales!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1080,64 +1095,64 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$60:$A$67</c:f>
+              <c:f>Totales!$A$70:$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Cabina rota</c:v>
+                  <c:v>Robo de cápsulas</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Display roto o dañado</c:v>
+                  <c:v>Corte del bajante</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Corte del bajante</c:v>
+                  <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vandalismo múltiple</c:v>
+                  <c:v>Microteléfono partido</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Microteléfono partido</c:v>
+                  <c:v>Robo equipo completo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Robo equipo completo</c:v>
+                  <c:v>Robo de la hucha</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Cabina rota</c:v>
+                  <c:v>Robo de cápsulas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$60:$B$67</c:f>
+              <c:f>Totales!$B$70:$B$77</c:f>
               <c:numCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1189,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2021)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1190,11 +1205,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$67</c:f>
+              <c:f>Totales!$B$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1244,25 +1259,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$68:$A$73</c:f>
+              <c:f>Totales!$A$78:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Cabina rota</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Display roto o dañado</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Corte del bajante</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vandalismo múltiple</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Microteléfono partido</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vandalismo múltiple</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Robo equipo completo</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Robo de la hucha</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Cant-Hechos-Tpub</c:v>
                 </c:pt>
               </c:strCache>
@@ -1270,25 +1291,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$68:$B$73</c:f>
+              <c:f>Totales!$B$78:$B$85</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1396,7 +1423,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -1435,7 +1462,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -1478,70 +1505,85 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$73:$A$93</c:f>
+              <c:f>'Totales'!$A$85:$A$110</c:f>
               <c:numCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1679,49 +1721,49 @@
                   <c:v>DTAR</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>DTIJ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DTVC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DTLT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DTSS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>DTMZ</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>DTMY</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>DTCF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DTPR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DTLT</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DTCA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DTVC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DVLH</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>DTHO</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DTIJ</c:v>
+                  <c:v>DTGR</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>DTGT</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DTSC</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>DTCM</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>DTGR</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>DTSS</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>DTGT</c:v>
+                  <c:v>DVLH</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>DTMY</c:v>
+                  <c:v>DTPR</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>DTSC</c:v>
+                  <c:v>DTCA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1732,49 +1774,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1848,7 +1890,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26 Servicios Afectados</c:v>
+                  <c:v>53 Servicios Afectados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1913,39 +1955,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$26:$E$29</c:f>
+              <c:f>Totales!$E$26:$E$32</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Plaza</c:v>
+                  <c:v>Mariel</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Isla de la Juventud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Banes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Artemisa</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Habana del Este</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 Municipios</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>11 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$26:$F$29</c:f>
+              <c:f>Totales!$F$26:$F$32</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2013,7 +2073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$F$30</c:f>
+              <c:f>Totales!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,39 +2142,63 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$31:$E$34</c:f>
+              <c:f>Totales!$E$34:$E$41</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Venezuela</c:v>
+                  <c:v>Corralillo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1 Municipios &lt;=</c:v>
+                  <c:v>Mariel</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3 Municipios &lt;=</c:v>
+                  <c:v>Mella</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13 Municipios &lt;=</c:v>
+                  <c:v>Jobabo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Manicaragua</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Municipios &lt;=</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10 Municipios &lt;=</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12 Municipios &lt;=</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$31:$F$34</c:f>
+              <c:f>Totales!$F$34:$F$41</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.69</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2181,7 +2265,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2021)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2197,11 +2281,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$21</c:f>
+              <c:f>Totales!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2251,9 +2335,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$22:$A$30</c:f>
+              <c:f>Totales!$A$20:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2267,18 +2351,30 @@
                   <c:v>Gabinetes</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Tensor de anclaje</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Alambre de coser</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Crucetas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Postes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2286,20 +2382,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$22:$B$30</c:f>
+              <c:f>Totales!$B$20:$B$32</c:f>
               <c:numCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2308,12 +2404,24 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2351,7 +2459,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2019)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2371,7 +2479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>994</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2421,14 +2529,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$21</c:f>
+              <c:f>Totales!$A$10:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cable coaxial</c:v>
+                  <c:v>Cable de aterramiento</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
@@ -2449,15 +2557,9 @@
                   <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Alambre de coser</c:v>
+                  <c:v>Postes</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Postes</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Mondragón</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -2465,44 +2567,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$10:$C$21</c:f>
+              <c:f>Totales!$C$10:$C$19</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>794</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2423</c:v>
+                  <c:v>3707</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>450</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1070</c:v>
+                  <c:v>4458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1350</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>467</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,7 +2635,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2021)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2555,11 +2651,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$C$21</c:f>
+              <c:f>Totales!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>467</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,9 +2705,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$22:$A$30</c:f>
+              <c:f>Totales!$A$20:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2625,18 +2721,30 @@
                   <c:v>Gabinetes</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Tensor de anclaje</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Alambre de coser</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Crucetas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Postes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2644,34 +2752,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$22:$C$30</c:f>
+              <c:f>Totales!$C$20:$C$32</c:f>
               <c:numCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1122</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3460</c:v>
+                  <c:v>3901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7702</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3300</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2779,7 +2899,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -2818,7 +2938,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -2861,70 +2981,85 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$30:$A$50</c:f>
+              <c:f>'Totales'!$A$32:$A$57</c:f>
               <c:numCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3009,7 +3144,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 61 hechos</c:v>
+            <c:v>2019: 73 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3134,49 +3269,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,7 +3321,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 75 hechos</c:v>
+            <c:v>2020: 78 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3308,49 +3443,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3436,11 +3571,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$50</c:f>
+              <c:f>Totales!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad de Hechos: 75</c:v>
+                  <c:v>Cantidad de Hechos: 78</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3505,63 +3640,81 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$51:$A$58</c:f>
+              <c:f>Totales!$A$58:$A$68</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Arroyo Naranjo</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Santiago de Cuba</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Las Tunas</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bayamo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Camagüey</c:v>
+                  <c:v>Las Tunas</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Jovellanos</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Isla de la Juventud</c:v>
+                  <c:v>Holguín</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9 Municipios</c:v>
+                  <c:v>Jagüey Grande</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26 Municipios</c:v>
+                  <c:v>San Luis (SC)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Camagüey</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$51:$B$58</c:f>
+              <c:f>Totales!$B$58:$B$68</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3628,7 +3781,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos x Territorios (2020-2021)</a:t>
+              <a:t>TPub Hechos x Territorios (2019-2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3644,7 +3797,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 35 hechos</c:v>
+            <c:v>2019: 58 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3766,52 +3919,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,7 +3974,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 20 hechos</c:v>
+            <c:v>2020: 47 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3946,49 +4099,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,7 +4223,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Servicios Afectados x Territorios (2020-2021)</a:t>
+              <a:t>TPub Servicios Afectados x Territorios (2019-2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4086,7 +4239,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 40 hechos</c:v>
+            <c:v>2019: 77 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4208,52 +4361,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,7 +4416,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 24 hechos</c:v>
+            <c:v>2020: 53 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4385,52 +4538,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5259,7 +5412,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -5285,32 +5438,32 @@
     </row>
     <row r="2" ht="26.25" customHeight="true">
       <c r="A2" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="4">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2+C2</f>
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
       <c r="A3" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">C3+B3</f>
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="true">
@@ -5319,15 +5472,15 @@
       </c>
       <c r="B4" s="3" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>14 más</v>
+        <v>5 más</v>
       </c>
       <c r="C4" s="3" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>14 menos</v>
+        <v>11 menos</v>
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>Igual</v>
+        <v>6 menos</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -5336,15 +5489,15 @@
       </c>
       <c r="B5" s="6" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>23% Inc</v>
+        <v>7% Inc</v>
       </c>
       <c r="C5" s="6" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>40% Red</v>
-      </c>
-      <c r="D5" s="7">
+        <v>19% Red</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>0</v>
+        <v>5% Red</v>
       </c>
     </row>
     <row r="7">
@@ -5371,13 +5524,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>994</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.51</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10">
@@ -5385,16 +5538,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>794</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -5405,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -5419,16 +5572,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>2423</v>
+        <v>3707</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
@@ -5445,7 +5598,7 @@
         <v>19</v>
       </c>
       <c r="F13">
-        <v>0.07</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
@@ -5453,16 +5606,16 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14">
-        <v>0.07</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15">
@@ -5470,16 +5623,16 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
@@ -5487,16 +5640,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>450</v>
+        <v>2360</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5657,16 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>1070</v>
+        <v>4458</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
       <c r="F17">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
@@ -5521,115 +5674,115 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1350</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>995</v>
+      </c>
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>1404</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>1122</v>
+        <v>3901</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>3460</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5637,50 +5790,50 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>580</v>
+        <v>1071</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5688,69 +5841,81 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>7702</v>
+        <v>1350</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>3300</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
         <v>45</v>
       </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>6</v>
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
-        <v>1.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>20</v>
+      <c r="A32" t="s">
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -5758,81 +5923,123 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <v>2.37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>2.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37">
+        <v>1.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>1.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>1.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -5842,7 +6049,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -5851,152 +6058,131 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
+      <c r="A50">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
         <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6004,31 +6190,31 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6036,67 +6222,103 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <v>6</v>
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>21</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>6</v>
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>3</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85">
-        <v>7</v>
+      <c r="A85" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -6106,22 +6328,22 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -6131,7 +6353,92 @@
     </row>
     <row r="92">
       <c r="A92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
         <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6154,20 +6461,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="N1" s="10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -6177,42 +6484,42 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6221,7 +6528,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="N3" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O3" s="3">
         <f ca="1">E22</f>
@@ -6241,25 +6548,25 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="14">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="G4" s="17">
         <v>25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>11</v>
@@ -6285,25 +6592,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="D5" s="16">
-        <v>29.2</v>
+        <v>5814.33</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="G5" s="17">
-        <v>0</v>
+        <v>119.2</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3">
         <f ca="1">E24</f>
@@ -6323,28 +6630,28 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>2103</v>
+        <v>3</v>
       </c>
       <c r="D6" s="16">
-        <v>5</v>
+        <v>866.61</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="G6" s="17">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O6" s="3">
         <f ca="1">E25</f>
@@ -6364,28 +6671,28 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16">
+        <v>795.48</v>
+      </c>
+      <c r="E7" s="3">
         <v>15</v>
       </c>
-      <c r="C7" s="14">
+      <c r="F7" s="3">
         <v>1146</v>
       </c>
-      <c r="D7" s="16">
+      <c r="G7" s="17">
         <v>5197.789999999999</v>
       </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>530</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
       <c r="N7" s="14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="O7" s="3">
         <f ca="1">E26</f>
@@ -6405,28 +6712,28 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="16">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G8" s="17">
         <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O8" s="3">
         <f ca="1">E27</f>
@@ -6446,28 +6753,28 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14">
-        <v>2916</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>1468.92</v>
+        <v>16.8</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
       </c>
       <c r="F9" s="3">
-        <v>493</v>
+        <v>4098</v>
       </c>
       <c r="G9" s="17">
-        <v>0</v>
+        <v>2481.04</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3">
         <f ca="1">E28</f>
@@ -6487,28 +6794,28 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>97.85</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>97.85</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>191</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="O10" s="3">
         <f ca="1">E29</f>
@@ -6528,28 +6835,28 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>1085.26</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G11" s="17">
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O11" s="3">
         <f ca="1">E30</f>
@@ -6569,28 +6876,28 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B12" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="17">
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="O12" s="3">
         <f ca="1">E31</f>
@@ -6610,28 +6917,28 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="14">
+      <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="16">
+      <c r="G13" s="17">
         <v>674</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
       <c r="N13" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O13" s="3">
         <f ca="1">E32</f>
@@ -6651,28 +6958,28 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="14">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="D14" s="16">
-        <v>283.7</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>575</v>
+        <v>142</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>284.9</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14" s="3">
         <f ca="1">E33</f>
@@ -6692,25 +6999,25 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="14">
         <v>3</v>
       </c>
       <c r="C15" s="14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D15" s="16">
-        <v>21.880000000000003</v>
+        <v>329.8</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>1402.2900000000002</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>27</v>
@@ -6736,25 +7043,25 @@
         <v>27</v>
       </c>
       <c r="B16" s="14">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C16" s="14">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="D16" s="16">
+        <v>2816.0800000000004</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>540</v>
+      </c>
+      <c r="G16" s="17">
         <v>134.2</v>
       </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>34</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
       <c r="N16" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O16" s="3">
         <f ca="1">E35</f>
@@ -6774,28 +7081,28 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="14">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>6</v>
+      </c>
+      <c r="D17" s="16">
+        <v>903.985</v>
+      </c>
+      <c r="E17" s="3">
         <v>7</v>
       </c>
-      <c r="C17" s="14">
+      <c r="F17" s="3">
         <v>11</v>
       </c>
-      <c r="D17" s="16">
+      <c r="G17" s="17">
         <v>2240.89</v>
       </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>12</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
       <c r="N17" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O17" s="3">
         <f ca="1">E36</f>
@@ -6815,28 +7122,28 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="16">
-        <v>1015.97</v>
+        <v>15735.24</v>
       </c>
       <c r="E18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3">
-        <v>656</v>
+        <v>55</v>
       </c>
       <c r="G18" s="17">
-        <v>0</v>
+        <v>1473.97</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O18" s="3">
         <f ca="1">E37</f>
@@ -6856,16 +7163,16 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>1057.03</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -6877,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O19" s="18">
         <f ca="1">E38</f>
@@ -6898,7 +7205,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <f ca="1">SUM(B4:B19)</f>
@@ -6927,7 +7234,7 @@
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -6938,25 +7245,25 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B22" s="25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C22" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D22" s="26">
-        <v>31.68</v>
+        <v>351.71000000000004</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
       </c>
       <c r="F22" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="28">
-        <v>0</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="23">
@@ -6964,88 +7271,88 @@
         <v>11</v>
       </c>
       <c r="B23" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" s="16">
-        <v>266.92</v>
+        <v>120.15</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="17">
-        <v>0</v>
+        <v>315.52000000000004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16">
+        <v>120.45</v>
+      </c>
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="14">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="16">
+      <c r="G24" s="17">
         <v>39.25</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="14">
+        <v>15</v>
+      </c>
+      <c r="D25" s="16">
+        <v>725.65</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="D25" s="16">
-        <v>972.5500000000001</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25" s="17">
-        <v>0</v>
+        <v>1000.5500000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -7053,39 +7360,39 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" s="16">
-        <v>8.24</v>
+        <v>196.34</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="17">
-        <v>0</v>
+        <v>693.64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B28" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C28" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D28" s="16">
-        <v>30.95</v>
+        <v>2013.83</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -7094,73 +7401,73 @@
         <v>1</v>
       </c>
       <c r="G28" s="17">
-        <v>0</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B29" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="16">
-        <v>134.53</v>
+        <v>219.64</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G29" s="17">
-        <v>0</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B30" s="14">
+        <v>6</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>225.26999999999998</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="14">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="16">
+      <c r="G30" s="17">
         <v>39.6</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="16">
-        <v>0</v>
+        <v>416.66</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -7168,7 +7475,7 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -7177,13 +7484,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="16">
-        <v>0</v>
+        <v>72.03999999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="17">
         <v>0</v>
@@ -7191,25 +7498,25 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16">
+        <v>104.37</v>
+      </c>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="C33" s="14">
+      <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="G33" s="17">
         <v>60.51</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7217,96 +7524,96 @@
         <v>27</v>
       </c>
       <c r="B34" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="16">
-        <v>40.44</v>
+        <v>1568.01</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="17">
-        <v>0</v>
+        <v>82.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="14">
         <v>3</v>
       </c>
       <c r="D35" s="16">
+        <v>62.58</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17">
         <v>104.94</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="16">
-        <v>98.81</v>
+        <v>75.27</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="17">
-        <v>0</v>
+        <v>429.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16">
+        <v>28.77</v>
+      </c>
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="14">
+      <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="D37" s="16">
+      <c r="G37" s="17">
         <v>65.12</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B38" s="18">
         <f ca="1">SUM(B22:B37)</f>
@@ -7335,15 +7642,15 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -7351,34 +7658,34 @@
       <c r="A41" s="13"/>
       <c r="B41" s="31"/>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" s="14">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>3300</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43">
@@ -7387,16 +7694,16 @@
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D43" s="14">
-        <v>794</v>
+        <v>312</v>
       </c>
       <c r="E43" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5">
-        <v>1122</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="44">
@@ -7405,16 +7712,16 @@
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D44" s="14">
-        <v>1070</v>
+        <v>4458</v>
       </c>
       <c r="E44" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F44" s="5">
-        <v>7702</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="45">
@@ -7423,16 +7730,16 @@
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="14">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D45" s="14">
-        <v>2423</v>
+        <v>3707</v>
       </c>
       <c r="E45" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F45" s="5">
-        <v>3460</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="46">
@@ -7444,13 +7751,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="14">
-        <v>994</v>
+        <v>388</v>
       </c>
       <c r="E46" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" s="5">
-        <v>467</v>
+        <v>995</v>
       </c>
     </row>
     <row r="47">
@@ -7459,34 +7766,34 @@
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="14">
+        <v>7</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2360</v>
+      </c>
+      <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="14">
+      <c r="F47" s="5">
         <v>450</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5">
-        <v>580</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -7501,22 +7808,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="32" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7531,21 +7838,21 @@
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="14">
+        <v>5</v>
+      </c>
+      <c r="D51" s="14">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
         <v>2</v>
       </c>
-      <c r="D51" s="14">
+      <c r="F51" s="5">
         <v>3</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="14">
@@ -7563,7 +7870,7 @@
     </row>
     <row r="53">
       <c r="A53" s="32" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="14">
@@ -7573,22 +7880,22 @@
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="32" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -7599,7 +7906,7 @@
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="14">
@@ -7617,7 +7924,7 @@
     </row>
     <row r="56">
       <c r="A56" s="32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="14">
@@ -7635,25 +7942,25 @@
     </row>
     <row r="57">
       <c r="A57" s="32" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="14">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>2</v>
       </c>
-      <c r="D57" s="14">
+      <c r="F57" s="5">
         <v>20</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="32" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="14">
@@ -7675,26 +7982,26 @@
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="36">
+        <v>3</v>
+      </c>
+      <c r="D59" s="36">
+        <v>13</v>
+      </c>
+      <c r="E59" s="6">
         <v>1</v>
       </c>
-      <c r="D59" s="36">
+      <c r="F59" s="7">
         <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E61" s="9"/>
     </row>
@@ -7703,67 +8010,67 @@
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E62" s="2">
         <v>2020</v>
-      </c>
-      <c r="E62" s="2">
-        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="32" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E64" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
         <v>1</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="32" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="37"/>
@@ -7776,20 +8083,20 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
         <v>2</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="32" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="37"/>
@@ -7802,46 +8109,46 @@
     </row>
     <row r="70">
       <c r="A70" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E70" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="32" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="37"/>
       <c r="D71" s="38">
+        <v>4</v>
+      </c>
+      <c r="E71" s="5">
         <v>5</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="32" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="32" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="37"/>
@@ -7849,12 +8156,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="32" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="37"/>
@@ -7867,7 +8174,7 @@
     </row>
     <row r="75">
       <c r="A75" s="32" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="37"/>
@@ -7880,7 +8187,7 @@
     </row>
     <row r="76">
       <c r="A76" s="34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B76" s="35"/>
       <c r="C76" s="39"/>
@@ -7896,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -7915,183 +8222,183 @@
     </row>
     <row r="80">
       <c r="A80" s="14">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C80" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="25"/>
       <c r="B81" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C81" s="14">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D81" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="25"/>
       <c r="B82" s="14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C82" s="14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D82" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="25"/>
       <c r="B83" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C83" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="25"/>
       <c r="B84" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C84" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="25"/>
       <c r="B85" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C85" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="25"/>
       <c r="B86" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C86" s="14">
+        <v>11</v>
+      </c>
+      <c r="D86" s="5">
         <v>7</v>
-      </c>
-      <c r="D86" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="25"/>
       <c r="B87" s="14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C87" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="25"/>
       <c r="B88" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C88" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="25"/>
       <c r="B89" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C89" s="14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D89" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="25"/>
       <c r="B90" s="14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C90" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="25"/>
       <c r="B91" s="14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C91" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C92" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D92" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="25"/>
       <c r="B93" s="14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C93" s="14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="25"/>
       <c r="B94" s="14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C94" s="14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D94" s="5">
         <v>4</v>
@@ -8100,161 +8407,161 @@
     <row r="95">
       <c r="A95" s="25"/>
       <c r="B95" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C95" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D95" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="25"/>
       <c r="B96" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C96" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D96" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="25"/>
       <c r="B97" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C97" s="14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D97" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="25"/>
       <c r="B98" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C98" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="25"/>
       <c r="B99" s="14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C99" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="25"/>
       <c r="B100" s="14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C100" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D100" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="25"/>
       <c r="B101" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C101" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D101" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="25"/>
       <c r="B102" s="14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C102" s="14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D102" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="41"/>
       <c r="B103" s="36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C103" s="36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D103" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A64:C64"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8277,20 +8584,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
@@ -8298,7 +8605,7 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8307,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -8316,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -8327,34 +8634,34 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
       <c r="I3" s="14">
         <v>0</v>
       </c>
       <c r="J3" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8365,83 +8672,83 @@
         <v>10</v>
       </c>
       <c r="C4" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
       </c>
       <c r="J4" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14">
         <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>8</v>
-      </c>
-      <c r="F6" s="14">
-        <v>4</v>
-      </c>
-      <c r="G6" s="14">
-        <v>4</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -8455,25 +8762,25 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -8487,54 +8794,54 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14">
         <v>9</v>
       </c>
       <c r="D8" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="14">
         <v>9</v>
       </c>
       <c r="G8" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
       </c>
       <c r="J8" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -8551,25 +8858,25 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -8583,25 +8890,25 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -8615,25 +8922,25 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -8647,31 +8954,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="42">
         <v>0</v>
@@ -8679,25 +8986,25 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -8714,86 +9021,86 @@
         <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
       </c>
       <c r="J15" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -8807,25 +9114,25 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
       </c>
       <c r="G18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -8839,7 +9146,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B19" s="18">
         <f ca="1">SUM(B3:B18)</f>
@@ -8880,10 +9187,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/src/informesGenerados/ResumenFGR.xlsx
+++ b/src/informesGenerados/ResumenFGR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Año</t>
   </si>
@@ -59,253 +59,223 @@
     <t>Cable telefónico</t>
   </si>
   <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>Cable coaxial</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>DTCA</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>DVLH</t>
+  </si>
+  <si>
+    <t>Alambre de coser</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>Postes</t>
+  </si>
+  <si>
     <t>DTIJ</t>
   </si>
   <si>
+    <t>Mondragón</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>26 Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Plaza</t>
+  </si>
+  <si>
+    <t>Habana del Este</t>
+  </si>
+  <si>
+    <t>Cant-Hechos</t>
+  </si>
+  <si>
+    <t>3 Municipios</t>
+  </si>
+  <si>
+    <t>11 Municipios</t>
+  </si>
+  <si>
+    <t>% Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>1 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>3 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>12 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>Cantidad de Hechos: 69</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
+  </si>
+  <si>
+    <t>8 Municipios</t>
+  </si>
+  <si>
+    <t>27 Municipios</t>
+  </si>
+  <si>
+    <t>Robo de cápsulas</t>
+  </si>
+  <si>
+    <t>Cabina rota</t>
+  </si>
+  <si>
+    <t>Robo del microteléfono</t>
+  </si>
+  <si>
+    <t>Display roto o dañado</t>
+  </si>
+  <si>
+    <t>Corte del bajante</t>
+  </si>
+  <si>
+    <t>Vandalismo múltiple</t>
+  </si>
+  <si>
+    <t>Microteléfono partido</t>
+  </si>
+  <si>
+    <t>Robo equipo completo</t>
+  </si>
+  <si>
+    <t>Robo de la hucha</t>
+  </si>
+  <si>
+    <t>Cant-Hechos-Tpub</t>
+  </si>
+  <si>
+    <t>División Territorial</t>
+  </si>
+  <si>
+    <t>Telefonía Pública (2021)</t>
+  </si>
+  <si>
+    <t>Cantidad Hechos</t>
+  </si>
+  <si>
+    <t>Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Pérdidas Económicas</t>
+  </si>
+  <si>
+    <t>Div Territ.</t>
+  </si>
+  <si>
+    <t>Cant. Hechos</t>
+  </si>
+  <si>
+    <t>Serv. Afect.</t>
+  </si>
+  <si>
+    <t>EP Instaladas</t>
+  </si>
+  <si>
+    <t>SA/EP</t>
+  </si>
+  <si>
+    <t>Planta Exterior</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Telefonía Pública</t>
+  </si>
+  <si>
+    <t>Material afectado</t>
+  </si>
+  <si>
+    <t>Cant. Material</t>
+  </si>
+  <si>
+    <t>Angulares de torres</t>
+  </si>
+  <si>
+    <t>Crucetas</t>
+  </si>
+  <si>
     <t>Cable de aterramiento</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Bajante telefónico</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>Gabinetes</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>Tensor de anclaje</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>Cable simétrico</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>Alambre de cobre</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>Tensor</t>
-  </si>
-  <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>Postes</t>
-  </si>
-  <si>
-    <t>DTGR</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>Cable coaxial</t>
-  </si>
-  <si>
-    <t>DTCM</t>
-  </si>
-  <si>
-    <t>DVLH</t>
-  </si>
-  <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>DTCA</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>53 Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Isla de la Juventud</t>
-  </si>
-  <si>
-    <t>Alambre de coser</t>
-  </si>
-  <si>
-    <t>Banes</t>
-  </si>
-  <si>
-    <t>Crucetas</t>
-  </si>
-  <si>
-    <t>Artemisa</t>
-  </si>
-  <si>
-    <t>Habana del Este</t>
-  </si>
-  <si>
-    <t>Mondragón</t>
-  </si>
-  <si>
-    <t>11 Municipios</t>
-  </si>
-  <si>
-    <t>Cant-Hechos</t>
-  </si>
-  <si>
-    <t>15 Municipios</t>
-  </si>
-  <si>
-    <t>% Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Corralillo</t>
-  </si>
-  <si>
-    <t>Mella</t>
-  </si>
-  <si>
-    <t>Jobabo</t>
-  </si>
-  <si>
-    <t>Manicaragua</t>
-  </si>
-  <si>
-    <t>5 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>10 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>12 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>Cantidad de Hechos: 78</t>
-  </si>
-  <si>
-    <t>Arroyo Naranjo</t>
-  </si>
-  <si>
-    <t>Santiago de Cuba</t>
-  </si>
-  <si>
-    <t>Bayamo</t>
-  </si>
-  <si>
-    <t>Las Tunas</t>
-  </si>
-  <si>
-    <t>Jovellanos</t>
-  </si>
-  <si>
-    <t>Holguín</t>
-  </si>
-  <si>
-    <t>Jagüey Grande</t>
-  </si>
-  <si>
-    <t>San Luis (SC)</t>
-  </si>
-  <si>
-    <t>Camagüey</t>
-  </si>
-  <si>
-    <t>5 Municipios</t>
-  </si>
-  <si>
-    <t>20 Municipios</t>
-  </si>
-  <si>
-    <t>Cabina rota</t>
-  </si>
-  <si>
-    <t>Robo de cápsulas</t>
-  </si>
-  <si>
-    <t>Robo del microteléfono</t>
-  </si>
-  <si>
-    <t>Corte del bajante</t>
-  </si>
-  <si>
-    <t>Vandalismo múltiple</t>
-  </si>
-  <si>
-    <t>Microteléfono partido</t>
-  </si>
-  <si>
-    <t>Robo equipo completo</t>
-  </si>
-  <si>
-    <t>Robo de la hucha</t>
-  </si>
-  <si>
-    <t>Display roto o dañado</t>
-  </si>
-  <si>
-    <t>Cant-Hechos-Tpub</t>
-  </si>
-  <si>
-    <t>División Territorial</t>
-  </si>
-  <si>
-    <t>Telefonía Pública (2020)</t>
-  </si>
-  <si>
-    <t>Cantidad Hechos</t>
-  </si>
-  <si>
-    <t>Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Pérdidas Económicas</t>
-  </si>
-  <si>
-    <t>Div Territ.</t>
-  </si>
-  <si>
-    <t>Cant. Hechos</t>
-  </si>
-  <si>
-    <t>Serv. Afect.</t>
-  </si>
-  <si>
-    <t>EP Instaladas</t>
-  </si>
-  <si>
-    <t>SA/EP</t>
-  </si>
-  <si>
-    <t>Planta Exterior</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Telefonía Pública</t>
-  </si>
-  <si>
-    <t>Material afectado</t>
-  </si>
-  <si>
-    <t>Cant. Material</t>
-  </si>
-  <si>
-    <t>Angulares de torres</t>
   </si>
   <si>
     <t>Campana canal lateral</t>
@@ -849,7 +819,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2019)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -869,7 +839,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -919,37 +889,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$19</c:f>
+              <c:f>Totales!$A$10:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cable de aterramiento</c:v>
+                  <c:v>Cable coaxial</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Gabinetes</c:v>
+                  <c:v>Tensor de anclaje</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tensor de anclaje</c:v>
+                  <c:v>Cable simétrico</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Cable simétrico</c:v>
+                  <c:v>Alambre de cobre</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Alambre de cobre</c:v>
+                  <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tensor</c:v>
+                  <c:v>Alambre de coser</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Postes</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -957,38 +930,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$10:$B$19</c:f>
+              <c:f>Totales!$B$10:$B$20</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1001,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2019)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1041,11 +1017,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$69</c:f>
+              <c:f>Totales!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1095,43 +1071,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$70:$A$77</c:f>
+              <c:f>Totales!$A$57:$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Robo de cápsulas</c:v>
+                  <c:v>Cabina rota</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Display roto o dañado</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Corte del bajante</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Microteléfono partido</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Robo equipo completo</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Robo de la hucha</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Robo de cápsulas</c:v>
+                  <c:v>Cabina rota</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$70:$B$77</c:f>
+              <c:f>Totales!$B$57:$B$64</c:f>
               <c:numCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -1140,19 +1116,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1165,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos por Tipo de Afectacion (2020)</a:t>
+              <a:t>TPub Hechos por Tipo de Afectacion (2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1205,11 +1181,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$77</c:f>
+              <c:f>Totales!$B$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1259,31 +1235,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$78:$A$85</c:f>
+              <c:f>Totales!$A$65:$A$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Cabina rota</c:v>
+                  <c:v>Robo del microteléfono</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Robo del microteléfono</c:v>
+                  <c:v>Microteléfono partido</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Display roto o dañado</c:v>
+                  <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Corte del bajante</c:v>
+                  <c:v>Robo equipo completo</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Vandalismo múltiple</c:v>
+                  <c:v>Robo de la hucha</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Microteléfono partido</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Robo equipo completo</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>Cant-Hechos-Tpub</c:v>
                 </c:pt>
               </c:strCache>
@@ -1291,31 +1261,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$78:$B$85</c:f>
+              <c:f>Totales!$B$65:$B$70</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1423,7 +1387,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -1462,7 +1426,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -1505,85 +1469,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$85:$A$110</c:f>
+              <c:f>'Totales'!$A$70:$A$90</c:f>
               <c:numCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1721,49 +1670,49 @@
                   <c:v>DTAR</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DTIJ</c:v>
+                  <c:v>DTMZ</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>DTCF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DTPR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DTLT</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DTCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>DTVC</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>DTLT</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DTSS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DTMZ</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DTMY</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>DTCF</c:v>
+                  <c:v>DVLH</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>DTHO</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>DTIJ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DTCM</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>DTGR</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>DTSS</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>DTGT</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>DTMY</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>DTSC</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>DTCM</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>DVLH</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>DTPR</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>DTCA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,49 +1723,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.79</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1890,7 +1839,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>53 Servicios Afectados</c:v>
+                  <c:v>26 Servicios Afectados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1955,57 +1904,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$26:$E$32</c:f>
+              <c:f>Totales!$E$26:$E$29</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Mariel</c:v>
+                  <c:v>Plaza</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Isla de la Juventud</c:v>
+                  <c:v>Habana del Este</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Banes</c:v>
+                  <c:v>3 Municipios</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Artemisa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Habana del Este</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>11 Municipios</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$26:$F$32</c:f>
+              <c:f>Totales!$F$26:$F$29</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2073,7 +2004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$F$33</c:f>
+              <c:f>Totales!$F$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2142,31 +2073,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$E$34:$E$41</c:f>
+              <c:f>Totales!$E$31:$E$34</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Corralillo</c:v>
+                  <c:v>Venezuela</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mariel</c:v>
+                  <c:v>1 Municipios &lt;=</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mella</c:v>
+                  <c:v>3 Municipios &lt;=</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Jobabo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Manicaragua</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5 Municipios &lt;=</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10 Municipios &lt;=</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12 Municipios &lt;=</c:v>
                 </c:pt>
               </c:strCache>
@@ -2174,31 +2093,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$F$34:$F$41</c:f>
+              <c:f>Totales!$F$31:$F$34</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.64</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.37</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2265,7 +2172,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Hechos por Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Hechos por Material Afectado(2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2281,11 +2188,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$19</c:f>
+              <c:f>Totales!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2335,9 +2242,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$20:$A$32</c:f>
+              <c:f>Totales!$A$21:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2351,30 +2258,15 @@
                   <c:v>Gabinetes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tensor de anclaje</c:v>
+                  <c:v>Alambre de cobre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Cable simétrico</c:v>
+                  <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Alambre de cobre</c:v>
+                  <c:v>Alambre de coser</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tensor</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Alambre de coser</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Crucetas</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Postes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mondragón</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2382,46 +2274,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$20:$B$32</c:f>
+              <c:f>Totales!$B$21:$B$28</c:f>
               <c:numCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2459,7 +2336,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2019)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2479,7 +2356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>388</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2529,37 +2406,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$10:$A$19</c:f>
+              <c:f>Totales!$A$10:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cable de aterramiento</c:v>
+                  <c:v>Cable coaxial</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Gabinetes</c:v>
+                  <c:v>Tensor de anclaje</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tensor de anclaje</c:v>
+                  <c:v>Cable simétrico</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Cable simétrico</c:v>
+                  <c:v>Alambre de cobre</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Alambre de cobre</c:v>
+                  <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tensor</c:v>
+                  <c:v>Alambre de coser</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Postes</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Fibra óptica</c:v>
                 </c:pt>
               </c:strCache>
@@ -2567,38 +2447,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$10:$C$19</c:f>
+              <c:f>Totales!$C$10:$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3707</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2360</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4458</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>995</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2518,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PExt - Cantidad de Material Afectado(2020)</a:t>
+              <a:t>PExt - Cantidad de Material Afectado(2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2651,11 +2534,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$C$19</c:f>
+              <c:f>Totales!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>995</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2705,9 +2588,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$20:$A$32</c:f>
+              <c:f>Totales!$A$21:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2721,30 +2604,15 @@
                   <c:v>Gabinetes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Tensor de anclaje</c:v>
+                  <c:v>Alambre de cobre</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Cable simétrico</c:v>
+                  <c:v>Tensor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Alambre de cobre</c:v>
+                  <c:v>Alambre de coser</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tensor</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Alambre de coser</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Crucetas</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Postes</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mondragón</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2752,46 +2620,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$C$20:$C$32</c:f>
+              <c:f>Totales!$C$21:$C$28</c:f>
               <c:numCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1404</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3901</c:v>
+                  <c:v>3180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>450</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2899,7 +2752,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -2938,7 +2791,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -2981,86 +2834,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales'!$A$32:$A$57</c:f>
+              <c:f>'Totales'!$A$29:$A$47</c:f>
               <c:numCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,7 +2976,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 73 hechos</c:v>
+            <c:v>2020: 54 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3266,52 +3098,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3321,7 +3153,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 78 hechos</c:v>
+            <c:v>2021: 69 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3443,49 +3275,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3571,11 +3403,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Totales!$B$57</c:f>
+              <c:f>Totales!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad de Hechos: 78</c:v>
+                  <c:v>Cantidad de Hechos: 69</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3640,81 +3472,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Totales!$A$58:$A$68</c:f>
+              <c:f>Totales!$A$49:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Arroyo Naranjo</c:v>
+                  <c:v>Santiago de Cuba</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Santiago de Cuba</c:v>
+                  <c:v>Las Tunas</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Camagüey</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Bayamo</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Las Tunas</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jovellanos</c:v>
+                  <c:v>Isla de la Juventud</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Holguín</c:v>
+                  <c:v>8 Municipios</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Jagüey Grande</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>San Luis (SC)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Camagüey</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5 Municipios</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20 Municipios</c:v>
+                  <c:v>27 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totales!$B$58:$B$68</c:f>
+              <c:f>Totales!$B$49:$B$55</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3781,7 +3589,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Hechos x Territorios (2019-2020)</a:t>
+              <a:t>TPub Hechos x Territorios (2020-2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3797,7 +3605,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 58 hechos</c:v>
+            <c:v>2020: 32 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -3919,52 +3727,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,7 +3782,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 47 hechos</c:v>
+            <c:v>2021: 19 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4099,49 +3907,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4031,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TPub Servicios Afectados x Territorios (2019-2020)</a:t>
+              <a:t>TPub Servicios Afectados x Territorios (2020-2021)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4239,7 +4047,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2019: 77 hechos</c:v>
+            <c:v>2020: 37 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4361,52 +4169,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4416,7 +4224,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2020: 53 hechos</c:v>
+            <c:v>2021: 24 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -4538,52 +4346,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,7 +5220,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -5438,32 +5246,32 @@
     </row>
     <row r="2" ht="26.25" customHeight="true">
       <c r="A2" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="4">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">B2+C2</f>
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
       <c r="A3" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="4">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">C3+B3</f>
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="true">
@@ -5472,15 +5280,15 @@
       </c>
       <c r="B4" s="3" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>5 más</v>
+        <v>15 más</v>
       </c>
       <c r="C4" s="3" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>11 menos</v>
+        <v>12 menos</v>
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>6 menos</v>
+        <v>3 más</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -5489,15 +5297,15 @@
       </c>
       <c r="B5" s="6" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>7% Inc</v>
+        <v>28% Inc</v>
       </c>
       <c r="C5" s="6" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>19% Red</v>
+        <v>38% Red</v>
       </c>
       <c r="D5" s="7" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>5% Red</v>
+        <v>3% Inc</v>
       </c>
     </row>
     <row r="7">
@@ -5521,16 +5329,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>388</v>
+        <v>964</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -5538,16 +5346,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>312</v>
+        <v>794</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
@@ -5558,13 +5366,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -5572,16 +5380,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>3707</v>
+        <v>2025</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5592,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13">
-        <v>0.24</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="14">
@@ -5606,16 +5414,16 @@
         <v>20</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>3</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14">
-        <v>0.24</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="15">
@@ -5623,16 +5431,16 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>450</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -5640,16 +5448,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2360</v>
+        <v>1070</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
@@ -5657,16 +5465,16 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>4458</v>
+        <v>1350</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
       <c r="F17">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
@@ -5674,115 +5482,115 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>995</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>1404</v>
+        <v>463</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1071</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>3901</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3180</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5796,13 +5604,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -5810,16 +5618,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>450</v>
+        <v>7402</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -5830,10 +5638,10 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>1071</v>
+        <v>3300</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5841,356 +5649,317 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1350</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="A29">
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>44</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
+      <c r="A30">
+        <v>20</v>
       </c>
       <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>47</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
       <c r="F32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34">
-        <v>3.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35">
-        <v>2.37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36">
-        <v>2.15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37">
-        <v>1.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38">
-        <v>1.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39">
-        <v>1.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>5</v>
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>6</v>
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
         <v>7</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>7</v>
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>4</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>10</v>
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>5</v>
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>12</v>
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>9</v>
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6198,247 +5967,102 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73">
-        <v>13</v>
-      </c>
-    </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74">
-        <v>21</v>
+      <c r="A74">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75">
+      <c r="A75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
         <v>3</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77">
+      <c r="A77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
         <v>5</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78">
+    <row r="81">
+      <c r="A81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
         <v>2</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84">
+    <row r="85">
+      <c r="A85">
         <v>4</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6461,20 +6085,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="N1" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -6484,42 +6108,42 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6528,7 +6152,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="N3" s="14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="O3" s="3">
         <f ca="1">E22</f>
@@ -6548,25 +6172,25 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>11</v>
@@ -6592,25 +6216,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14">
-        <v>303</v>
+        <v>179</v>
       </c>
       <c r="D5" s="16">
-        <v>5814.33</v>
+        <v>29.2</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="G5" s="17">
-        <v>119.2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O5" s="3">
         <f ca="1">E24</f>
@@ -6630,28 +6254,28 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B6" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="16">
-        <v>866.61</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="G6" s="17">
-        <v>52.9</v>
+        <v>0</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O6" s="3">
         <f ca="1">E25</f>
@@ -6671,28 +6295,28 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14">
-        <v>26</v>
+        <v>1146</v>
       </c>
       <c r="D7" s="16">
-        <v>795.48</v>
+        <v>5197.789999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>1146</v>
+        <v>530</v>
       </c>
       <c r="G7" s="17">
-        <v>5197.789999999999</v>
+        <v>0</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="O7" s="3">
         <f ca="1">E26</f>
@@ -6712,28 +6336,28 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>54.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="O8" s="3">
         <f ca="1">E27</f>
@@ -6753,28 +6377,28 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="14">
-        <v>1</v>
+        <v>2916</v>
       </c>
       <c r="D9" s="16">
-        <v>16.8</v>
+        <v>1468.92</v>
       </c>
       <c r="E9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>4098</v>
+        <v>482</v>
       </c>
       <c r="G9" s="17">
-        <v>2481.04</v>
+        <v>0</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O9" s="3">
         <f ca="1">E28</f>
@@ -6794,7 +6418,7 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -6806,16 +6430,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="G10" s="17">
-        <v>97.85</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O10" s="3">
         <f ca="1">E29</f>
@@ -6835,28 +6459,28 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" s="14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D11" s="16">
-        <v>1085.26</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G11" s="17">
         <v>0</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O11" s="3">
         <f ca="1">E30</f>
@@ -6876,28 +6500,28 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16">
-        <v>360</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="17">
         <v>0</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3">
         <f ca="1">E31</f>
@@ -6917,28 +6541,28 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="17">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O13" s="3">
         <f ca="1">E32</f>
@@ -6958,28 +6582,28 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>283.7</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>142</v>
+        <v>575</v>
       </c>
       <c r="G14" s="17">
-        <v>284.9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O14" s="3">
         <f ca="1">E33</f>
@@ -6999,25 +6623,25 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="14">
         <v>3</v>
       </c>
       <c r="C15" s="14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16">
-        <v>329.8</v>
+        <v>21.880000000000003</v>
       </c>
       <c r="E15" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="17">
-        <v>1402.2900000000002</v>
+        <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>27</v>
@@ -7043,25 +6667,25 @@
         <v>27</v>
       </c>
       <c r="B16" s="14">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C16" s="14">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="D16" s="16">
-        <v>2816.0800000000004</v>
+        <v>83.9</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="G16" s="17">
-        <v>134.2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O16" s="3">
         <f ca="1">E35</f>
@@ -7081,28 +6705,28 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="14">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2240.89</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16">
-        <v>903.985</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11</v>
-      </c>
       <c r="G17" s="17">
-        <v>2240.89</v>
+        <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O17" s="3">
         <f ca="1">E36</f>
@@ -7122,28 +6746,28 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B18" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="14">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="16">
-        <v>15735.24</v>
+        <v>1003.47</v>
       </c>
       <c r="E18" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="G18" s="17">
-        <v>1473.97</v>
+        <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O18" s="3">
         <f ca="1">E37</f>
@@ -7163,16 +6787,16 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>1057.03</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -7184,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O19" s="18">
         <f ca="1">E38</f>
@@ -7205,7 +6829,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1">
         <f ca="1">SUM(B4:B19)</f>
@@ -7234,7 +6858,7 @@
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -7245,25 +6869,25 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C22" s="25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" s="26">
-        <v>351.71000000000004</v>
+        <v>31.68</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
       </c>
       <c r="F22" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="28">
-        <v>31.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7271,88 +6895,88 @@
         <v>11</v>
       </c>
       <c r="B23" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="14">
+        <v>8</v>
+      </c>
+      <c r="D23" s="16">
+        <v>228.28</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="16">
-        <v>120.15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7</v>
-      </c>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="17">
-        <v>315.52000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="16">
-        <v>120.45</v>
+        <v>39.25</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="17">
-        <v>39.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B25" s="14">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
         <v>6</v>
       </c>
-      <c r="C25" s="14">
-        <v>15</v>
-      </c>
       <c r="D25" s="16">
-        <v>725.65</v>
+        <v>972.5500000000001</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G25" s="17">
-        <v>1000.5500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="16">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -7360,39 +6984,39 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16">
+        <v>8.24</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="14">
-        <v>7</v>
-      </c>
-      <c r="D27" s="16">
-        <v>196.34</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="17">
-        <v>693.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B28" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="16">
-        <v>2013.83</v>
+        <v>30.95</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -7401,73 +7025,73 @@
         <v>1</v>
       </c>
       <c r="G28" s="17">
-        <v>30.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B29" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="16">
-        <v>219.64</v>
+        <v>134.53</v>
       </c>
       <c r="E29" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G29" s="17">
-        <v>206.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="16">
-        <v>225.26999999999998</v>
+        <v>39.6</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="17">
-        <v>39.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B31" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="16">
-        <v>416.66</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="17">
         <v>0</v>
@@ -7475,7 +7099,7 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -7484,13 +7108,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="16">
-        <v>72.03999999999999</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="17">
         <v>0</v>
@@ -7498,25 +7122,25 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="16">
-        <v>104.37</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" s="17">
-        <v>60.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7524,96 +7148,96 @@
         <v>27</v>
       </c>
       <c r="B34" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="16">
-        <v>1568.01</v>
+        <v>40.44</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="17">
-        <v>82.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="14">
         <v>3</v>
       </c>
       <c r="D35" s="16">
-        <v>62.58</v>
+        <v>104.94</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="17">
-        <v>104.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B36" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="16">
-        <v>75.27</v>
+        <v>98.81</v>
       </c>
       <c r="E36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="17">
-        <v>429.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="16">
-        <v>28.77</v>
+        <v>65.12</v>
       </c>
       <c r="E37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="17">
-        <v>65.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B38" s="18">
         <f ca="1">SUM(B22:B37)</f>
@@ -7642,15 +7266,15 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -7658,34 +7282,34 @@
       <c r="A41" s="13"/>
       <c r="B41" s="31"/>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="32" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" s="14">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>1350</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="43">
@@ -7694,34 +7318,34 @@
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D43" s="14">
-        <v>312</v>
+        <v>794</v>
       </c>
       <c r="E43" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F43" s="5">
-        <v>1404</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D44" s="14">
-        <v>4458</v>
+        <v>1070</v>
       </c>
       <c r="E44" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F44" s="5">
-        <v>1071</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7354,16 @@
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="14">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D45" s="14">
-        <v>3707</v>
+        <v>2025</v>
       </c>
       <c r="E45" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F45" s="5">
-        <v>3901</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="46">
@@ -7748,34 +7372,34 @@
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="14">
-        <v>388</v>
+        <v>964</v>
       </c>
       <c r="E46" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" s="5">
-        <v>995</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47" s="14">
-        <v>2360</v>
+        <v>450</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="5">
-        <v>450</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48">
@@ -7784,46 +7408,46 @@
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="32" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="32" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7834,25 +7458,25 @@
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="14">
@@ -7870,7 +7494,7 @@
     </row>
     <row r="53">
       <c r="A53" s="32" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="14">
@@ -7880,22 +7504,22 @@
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="32" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -7906,7 +7530,7 @@
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="14">
@@ -7924,7 +7548,7 @@
     </row>
     <row r="56">
       <c r="A56" s="32" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="14">
@@ -7942,25 +7566,25 @@
     </row>
     <row r="57">
       <c r="A57" s="32" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="32" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="14">
@@ -7978,30 +7602,30 @@
     </row>
     <row r="59">
       <c r="A59" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="36">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E61" s="9"/>
     </row>
@@ -8010,15 +7634,15 @@
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E62" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="37"/>
@@ -8026,51 +7650,51 @@
         <v>14</v>
       </c>
       <c r="E63" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="32" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E64" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="32" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="32" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="37"/>
@@ -8083,7 +7707,7 @@
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="37"/>
@@ -8091,12 +7715,12 @@
         <v>1</v>
       </c>
       <c r="E68" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="37"/>
@@ -8109,20 +7733,20 @@
     </row>
     <row r="70">
       <c r="A70" s="32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="37"/>
@@ -8130,25 +7754,25 @@
         <v>4</v>
       </c>
       <c r="E71" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="32" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="37"/>
@@ -8156,12 +7780,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="37"/>
@@ -8174,7 +7798,7 @@
     </row>
     <row r="75">
       <c r="A75" s="32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="37"/>
@@ -8187,7 +7811,7 @@
     </row>
     <row r="76">
       <c r="A76" s="34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B76" s="35"/>
       <c r="C76" s="39"/>
@@ -8203,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -8222,183 +7846,183 @@
     </row>
     <row r="80">
       <c r="A80" s="14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C80" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D80" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="25"/>
       <c r="B81" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C81" s="14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D81" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="25"/>
       <c r="B82" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C82" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D82" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="25"/>
       <c r="B83" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C83" s="14">
+        <v>5</v>
+      </c>
+      <c r="D83" s="5">
         <v>8</v>
-      </c>
-      <c r="D83" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="25"/>
       <c r="B84" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C84" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="25"/>
       <c r="B85" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C85" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="25"/>
       <c r="B86" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C86" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D86" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="25"/>
       <c r="B87" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C87" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="25"/>
       <c r="B88" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C88" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="25"/>
       <c r="B89" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C89" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D89" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="25"/>
       <c r="B90" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C90" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="25"/>
       <c r="B91" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C91" s="14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C92" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="25"/>
       <c r="B93" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C93" s="14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="25"/>
       <c r="B94" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C94" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D94" s="5">
         <v>4</v>
@@ -8407,161 +8031,161 @@
     <row r="95">
       <c r="A95" s="25"/>
       <c r="B95" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C95" s="14">
+        <v>10</v>
+      </c>
+      <c r="D95" s="5">
         <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="25"/>
       <c r="B96" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C96" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="25"/>
       <c r="B97" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C97" s="14">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D97" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="25"/>
       <c r="B98" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C98" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="25"/>
       <c r="B99" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C99" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D99" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="25"/>
       <c r="B100" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C100" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D100" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="25"/>
       <c r="B101" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C101" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="25"/>
       <c r="B102" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C102" s="14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D102" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="41"/>
       <c r="B103" s="36" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C103" s="36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A92:A103"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A92:A103"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A72:C72"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A80:A91"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8584,20 +8208,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
@@ -8605,7 +8229,7 @@
     <row r="2">
       <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8614,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -8623,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -8634,34 +8258,34 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <v>0</v>
       </c>
       <c r="J3" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8672,83 +8296,83 @@
         <v>10</v>
       </c>
       <c r="C4" s="14">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14">
-        <v>3</v>
-      </c>
-      <c r="G4" s="14">
-        <v>7</v>
-      </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
       </c>
       <c r="J4" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -8762,25 +8386,25 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -8794,54 +8418,54 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
       </c>
       <c r="J8" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -8858,25 +8482,25 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -8890,25 +8514,25 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -8922,25 +8546,25 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -8954,31 +8578,31 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="42">
         <v>0</v>
@@ -8986,25 +8610,25 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="14">
-        <v>7</v>
-      </c>
       <c r="D14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
         <v>9</v>
       </c>
-      <c r="F14" s="14">
-        <v>7</v>
-      </c>
       <c r="G14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -9021,86 +8645,86 @@
         <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
       </c>
       <c r="J15" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -9114,25 +8738,25 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
       </c>
       <c r="G18" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -9146,7 +8770,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B19" s="18">
         <f ca="1">SUM(B3:B18)</f>
@@ -9187,9 +8811,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
